--- a/TXT/Reprise_données_Demandes/reprise_de_données-Priorite.xlsx
+++ b/TXT/Reprise_données_Demandes/reprise_de_données-Priorite.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Demandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F12A680-159E-4DE8-B790-C46B8ACB17F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153D8B9-2B36-4760-8DA1-CC2C5EDB5EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Priorité" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_Etat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,10 +71,10 @@
     <t>Lib_Priorité (varchar (50) )</t>
   </si>
   <si>
-    <t>libelle (varchar (50) )</t>
-  </si>
-  <si>
     <t>IdPriorite (int AUTO INCREMENT)</t>
+  </si>
+  <si>
+    <t>libPrio (varchar (50) )</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
